--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salman\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Uni\MEng Project\MEng_Project\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EA763E-015C-43DD-AA19-8C6944C7F8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D48162-FDF1-48C6-A317-D09868068AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{018546D3-0EC1-42BC-9AC9-9B267FE68321}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{018546D3-0EC1-42BC-9AC9-9B267FE68321}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
   <si>
     <t>Results</t>
   </si>
@@ -171,9 +171,6 @@
     <t>&gt;25mins</t>
   </si>
   <si>
-    <t>&gt;10.76297</t>
-  </si>
-  <si>
     <t>dc1</t>
   </si>
   <si>
@@ -201,9 +198,6 @@
     <t>&gt;84.67185</t>
   </si>
   <si>
-    <t>&gt;7.79811</t>
-  </si>
-  <si>
     <t>rajat31</t>
   </si>
   <si>
@@ -247,6 +241,21 @@
   </si>
   <si>
     <t>Data Copy</t>
+  </si>
+  <si>
+    <t>&gt;16.89560</t>
+  </si>
+  <si>
+    <t>&gt;10.30715</t>
+  </si>
+  <si>
+    <t>&gt;7.14261</t>
+  </si>
+  <si>
+    <t>&gt;10.80116</t>
+  </si>
+  <si>
+    <t>&gt;10.22723</t>
   </si>
 </sst>
 </file>
@@ -440,6 +449,9 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -471,9 +483,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -801,95 +810,95 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
       <c r="J3" s="23"/>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="21" t="s">
+    <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="I4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="J4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="12"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -924,7 +933,7 @@
         <v>1.7644621911072602E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -959,7 +968,7 @@
         <v>1.3756759842557146E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -990,7 +999,7 @@
         <v>4.6123869784398364E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1021,7 +1030,7 @@
         <v>0.21215708055111052</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1064,7 +1073,7 @@
         <v>5.187686294237202</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1107,7 +1116,7 @@
         <v>2.7614738698885821E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1150,7 +1159,7 @@
         <v>11.070565649311037</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1193,7 +1202,7 @@
         <v>4.913089298438568E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1228,7 +1237,7 @@
         <v>4.6448958734845613E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1259,7 +1268,7 @@
         <v>6.4004573267922166E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1290,7 +1299,7 @@
         <v>4.6174471313838312</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1319,7 +1328,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1350,9 +1359,9 @@
         <v>8.5114533753490623E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2">
         <v>110355</v>
@@ -1393,7 +1402,7 @@
         <v>0.23717689944982615</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1436,9 +1445,9 @@
         <v>12.407298591015117</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="2">
         <v>86916</v>
@@ -1462,12 +1471,12 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="L21" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2">
         <v>116835</v>
@@ -1502,11 +1511,13 @@
         <f>F22-G22-H22-I22</f>
         <v>0.57399361399999549</v>
       </c>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L22" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2">
         <v>116835</v>
@@ -1526,8 +1537,11 @@
       </c>
       <c r="H23" s="8"/>
       <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L23" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1570,7 +1584,7 @@
         <v>9.2405246084866732</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1601,7 +1615,7 @@
         <v>4.2106670857246724E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1630,7 +1644,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1659,7 +1673,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -1688,7 +1702,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1719,9 +1733,9 @@
         <v>0.31528965766556705</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2">
         <v>411676</v>
@@ -1757,10 +1771,10 @@
         <v>0.62610015199999225</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1798,12 +1812,12 @@
         <v>0.64514431799997851</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2">
         <v>682712</v>
@@ -1832,7 +1846,7 @@
         <v>0.11746320362514802</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1861,9 +1875,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2">
         <v>414604</v>
@@ -1898,11 +1912,13 @@
         <f>F34-G34-H34-I34</f>
         <v>0.58786003400000197</v>
       </c>
-      <c r="L34" s="5"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L34" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2">
         <v>682862</v>
@@ -1931,7 +1947,7 @@
         <v>0.2638861061141502</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -1960,9 +1976,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B37" s="2">
         <v>1447360</v>
@@ -1974,7 +1990,7 @@
         <f t="shared" si="0"/>
         <v>2.6322836707820385E-6</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="5">
         <f>AVERAGE(305.361,305.552,306.74,306.412,307.996)</f>
         <v>306.41220000000004</v>
       </c>
@@ -1986,9 +2002,9 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B38" s="2">
         <v>659033</v>
@@ -2000,7 +2016,7 @@
         <f t="shared" si="0"/>
         <v>1.3720805681887336E-5</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="5">
         <f>AVERAGE(285.172,283.698,286.976,288.123,284.052)</f>
         <v>285.60420000000005</v>
       </c>
@@ -2012,7 +2028,7 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -2027,7 +2043,7 @@
         <v>1.4890176089716772E-5</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F39" s="5">
         <f>AVERAGE(649.098,654.949,639.015,633.014,635.83)</f>
@@ -2039,9 +2055,9 @@
       <c r="J39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B40" s="2">
         <v>2707524</v>
@@ -2065,7 +2081,7 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -2094,9 +2110,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B42" s="2">
         <v>3523317</v>
@@ -2120,9 +2136,9 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B43" s="2">
         <v>4690002</v>
@@ -2146,9 +2162,9 @@
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B44" s="2">
         <v>2999349</v>
@@ -2161,7 +2177,7 @@
         <v>2.5614089753255484E-6</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>33</v>
@@ -2171,9 +2187,9 @@
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B45" s="2">
         <v>2987012</v>
@@ -2196,9 +2212,9 @@
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B46" s="2">
         <v>5558326</v>
@@ -2221,7 +2237,7 @@
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="4"/>
@@ -2233,13 +2249,13 @@
       <c r="J47" s="5"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="4"/>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="4"/>
@@ -2251,7 +2267,7 @@
       <c r="J49" s="5"/>
       <c r="L49" s="6"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="4"/>
@@ -2263,10 +2279,10 @@
       <c r="J50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D52" s="4"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
@@ -2274,11 +2290,11 @@
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D53" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:L46">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L46">
     <sortCondition ref="C6:C46"/>
   </sortState>
   <mergeCells count="9">
